--- a/Docs/EVALUATION_RESULT_MODEL_3.xlsx
+++ b/Docs/EVALUATION_RESULT_MODEL_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY LINGAMPALLI\OneDrive\Documents\GitHub\LanguageTranslationSystem\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90AB5E4-0B88-4FC1-95AF-4F0FC7687504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE327C3F-CC1F-4AD9-BAF2-0ED72D507C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,19 +89,19 @@
     <t>GOOD</t>
   </si>
   <si>
-    <t>3.9 sec/sentence</t>
-  </si>
-  <si>
     <t>GPU INFERENCE SPEED</t>
   </si>
   <si>
     <t>CPU INFERENCE SPEED</t>
   </si>
   <si>
-    <t>0.139 sec/sentence</t>
-  </si>
-  <si>
     <t>IndicTrans2(En-Indic) 2023</t>
+  </si>
+  <si>
+    <t>2.17 sec/sentence</t>
+  </si>
+  <si>
+    <t>60.1 sec/sentence</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -733,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/EVALUATION_RESULT_MODEL_3.xlsx
+++ b/Docs/EVALUATION_RESULT_MODEL_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY LINGAMPALLI\OneDrive\Documents\GitHub\LanguageTranslationSystem\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE327C3F-CC1F-4AD9-BAF2-0ED72D507C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82961588-E8C7-42DC-BB4D-4341E0F5286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>IndicTrans2(En-Indic) 2023</t>
   </si>
   <si>
-    <t>2.17 sec/sentence</t>
-  </si>
-  <si>
-    <t>60.1 sec/sentence</t>
+    <t>0.499 sec/sentence provided by team</t>
+  </si>
+  <si>
+    <t>3.832 sec/sentence provided by team</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A9:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
